--- a/Sheet for fitting functions.xlsx
+++ b/Sheet for fitting functions.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harvey Merton\Documents\GithubWF\MECHENG706_Project1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1ce45b9c8a5a3d55/University_work/Year_4/MECHENG_706/Project 1/Github_workingDirectory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E8FCAF-6EDB-4BA5-9FB2-5D25B979C942}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{85E8FCAF-6EDB-4BA5-9FB2-5D25B979C942}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F2FBE476-5CC9-6F4C-BB06-7B605CC8BCD9}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{07C1CB3C-928A-4B06-B2BF-76EFFE9BDD1E}"/>
+    <workbookView xWindow="1060" yWindow="480" windowWidth="27480" windowHeight="17520" activeTab="1" xr2:uid="{07C1CB3C-928A-4B06-B2BF-76EFFE9BDD1E}"/>
   </bookViews>
   <sheets>
     <sheet name="IR_FR" sheetId="1" r:id="rId1"/>
-    <sheet name="IR_LF" sheetId="2" r:id="rId2"/>
+    <sheet name="IR_LF" sheetId="4" r:id="rId2"/>
     <sheet name="IR_LR" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -36,7 +36,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+  <si>
+    <t>Actual (mm)</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">float IR_LF_fxn(){ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  float reading = Smoothing(IR_LF);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  return 40546.45815*pow(reading,-1.092180602); </t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">float IR_LR_fxn(){ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  float reading = Smoothing(IR_LR);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  return 40546.45815*pow(reading,-1.092180602);</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -92,7 +120,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -219,7 +247,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>IR_FR!$A$1:$A$10</c:f>
+              <c:f>IR_FR!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -258,7 +286,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>IR_FR!$B$1:$B$10</c:f>
+              <c:f>IR_FR!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -299,6 +327,406 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8160-4EE4-8218-82E650664473}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1916538464"/>
+        <c:axId val="1916548448"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1916538464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1916548448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1916548448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1916538464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>IR_FR</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.17104833770778652"/>
+                  <c:y val="5.4808617672790903E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="@" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>IR_LF!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>193</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>IR_LF!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-54BE-874C-83AB-AB58C16F9303}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -529,7 +957,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1051,13 +2035,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>350043</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>78581</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>388143</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>107156</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1070,6 +2054,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>350043</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>78581</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>388143</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65038558-B6BA-AA48-BCF4-F1181C31DCFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1383,102 +2410,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7437A95C-6815-4274-9355-038FEF9DBDE8}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>617</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>507</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>436</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>382</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>333</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>302</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>272</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>259</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>215</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>236</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>221</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>255</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A23">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>1024</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A24">
-        <f>152246.3973*POWER(A23,-1.184450627)</f>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f>152246.3973*POWER(A24,-1.184450627)</f>
         <v>41.399524533319344</v>
       </c>
     </row>
@@ -1489,14 +2524,157 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA7ABFAB-E746-4D38-B5B6-68C035E2FCAC}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07524000-E2F4-594C-BC6B-43A097753746}">
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="136" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>558</v>
+      </c>
+      <c r="B2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>462</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>393</v>
+      </c>
+      <c r="B4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>342</v>
+      </c>
+      <c r="B5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>303</v>
+      </c>
+      <c r="B6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>268</v>
+      </c>
+      <c r="B7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>242</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>219</v>
+      </c>
+      <c r="B9">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>209</v>
+      </c>
+      <c r="B10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>193</v>
+      </c>
+      <c r="B11">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f>152246.3973*POWER(A24,-1.184450627)</f>
+        <v>41.399524533319344</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1506,7 +2684,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
